--- a/Code/Results/Cases/Case_0_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06837273906911889</v>
+        <v>0.02707368271244093</v>
       </c>
       <c r="D2">
-        <v>0.1270422968506182</v>
+        <v>0.1781656595681369</v>
       </c>
       <c r="E2">
-        <v>0.07124860248794818</v>
+        <v>0.1446918898624894</v>
       </c>
       <c r="F2">
-        <v>0.598153971641743</v>
+        <v>1.341293567397457</v>
       </c>
       <c r="G2">
-        <v>0.0008030541697757208</v>
+        <v>0.002458821648212779</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3297010384142212</v>
+        <v>0.6863248066017675</v>
       </c>
       <c r="J2">
-        <v>0.05977621129654764</v>
+        <v>0.1576000511679396</v>
       </c>
       <c r="K2">
-        <v>3.660134821667327</v>
+        <v>1.325493459160668</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8091618472759095</v>
+        <v>0.4201918276503207</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.326948323333937</v>
+        <v>3.214595581085661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06032316660105153</v>
+        <v>0.02441208013344465</v>
       </c>
       <c r="D3">
-        <v>0.1151818617038742</v>
+        <v>0.175510064981772</v>
       </c>
       <c r="E3">
-        <v>0.06778885762192388</v>
+        <v>0.1448156765348578</v>
       </c>
       <c r="F3">
-        <v>0.585576861541675</v>
+        <v>1.352735958002803</v>
       </c>
       <c r="G3">
-        <v>0.0008074665869129562</v>
+        <v>0.002461705477286613</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3204016547239235</v>
+        <v>0.6923138821479746</v>
       </c>
       <c r="J3">
-        <v>0.06006093585742533</v>
+        <v>0.159211077902885</v>
       </c>
       <c r="K3">
-        <v>3.185965063017761</v>
+        <v>1.174822085372625</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.704720983951546</v>
+        <v>0.3889817653281327</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.323244154564193</v>
+        <v>3.252798895395557</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05537954187564509</v>
+        <v>0.02276774562533745</v>
       </c>
       <c r="D4">
-        <v>0.1079800062692442</v>
+        <v>0.1739327526466354</v>
       </c>
       <c r="E4">
-        <v>0.06577377936401341</v>
+        <v>0.1449591373338279</v>
       </c>
       <c r="F4">
-        <v>0.579621502303425</v>
+        <v>1.360679540209958</v>
       </c>
       <c r="G4">
-        <v>0.0008102613029507363</v>
+        <v>0.002463569904438587</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3157834590717101</v>
+        <v>0.6965226120446388</v>
       </c>
       <c r="J4">
-        <v>0.06039819236016797</v>
+        <v>0.1602924078220553</v>
       </c>
       <c r="K4">
-        <v>2.895071921767453</v>
+        <v>1.082087063608896</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6407766772503933</v>
+        <v>0.3698591012823584</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.325822298905834</v>
+        <v>3.278666616111337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05336399419964977</v>
+        <v>0.02209515529386863</v>
       </c>
       <c r="D5">
-        <v>0.1050639325624374</v>
+        <v>0.1733034440111467</v>
       </c>
       <c r="E5">
-        <v>0.06497876814578163</v>
+        <v>0.1450345781379863</v>
       </c>
       <c r="F5">
-        <v>0.5776166103529263</v>
+        <v>1.364147211643484</v>
       </c>
       <c r="G5">
-        <v>0.0008114221124640442</v>
+        <v>0.002464353316905006</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3141612406830134</v>
+        <v>0.6983711345455248</v>
       </c>
       <c r="J5">
-        <v>0.06057471482785459</v>
+        <v>0.160756218523872</v>
       </c>
       <c r="K5">
-        <v>2.776552682283011</v>
+        <v>1.044243303852568</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6147544208742843</v>
+        <v>0.3620771160938787</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.328031162307553</v>
+        <v>3.289813217329197</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05302923549466243</v>
+        <v>0.02198332140446979</v>
       </c>
       <c r="D6">
-        <v>0.104580810448951</v>
+        <v>0.1731997628347273</v>
       </c>
       <c r="E6">
-        <v>0.06484829935342518</v>
+        <v>0.1450481310452414</v>
       </c>
       <c r="F6">
-        <v>0.5773085526700328</v>
+        <v>1.364736936941974</v>
       </c>
       <c r="G6">
-        <v>0.0008116162017688389</v>
+        <v>0.002464484831832046</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3139071420769497</v>
+        <v>0.6986861334039496</v>
       </c>
       <c r="J6">
-        <v>0.06060633733498477</v>
+        <v>0.1608346323737067</v>
       </c>
       <c r="K6">
-        <v>2.756872856192444</v>
+        <v>1.037956216724069</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6104353023240421</v>
+        <v>0.3607855813774066</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.328466146219185</v>
+        <v>3.291700633796538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05535236434538149</v>
+        <v>0.02275868496510469</v>
       </c>
       <c r="D7">
-        <v>0.107940605118003</v>
+        <v>0.1739242109786474</v>
       </c>
       <c r="E7">
-        <v>0.06576295337408844</v>
+        <v>0.1449600859831968</v>
       </c>
       <c r="F7">
-        <v>0.5795927838412993</v>
+        <v>1.360725373052851</v>
       </c>
       <c r="G7">
-        <v>0.0008102768686020778</v>
+        <v>0.00246358037403419</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3157605485915269</v>
+        <v>0.696547001872446</v>
       </c>
       <c r="J7">
-        <v>0.06040041699717236</v>
+        <v>0.1602985691781598</v>
       </c>
       <c r="K7">
-        <v>2.893473491971974</v>
+        <v>1.081576902808393</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.640425601237375</v>
+        <v>0.3697541069154298</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.325847478266994</v>
+        <v>3.278814493463955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06559705477766187</v>
+        <v>0.02615807490639099</v>
       </c>
       <c r="D8">
-        <v>0.1229351760140389</v>
+        <v>0.177239004471474</v>
       </c>
       <c r="E8">
-        <v>0.0700322005193641</v>
+        <v>0.1447205811407137</v>
       </c>
       <c r="F8">
-        <v>0.5934368075595202</v>
+        <v>1.345048259912275</v>
       </c>
       <c r="G8">
-        <v>0.0008045581073943191</v>
+        <v>0.002459796578097596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3262589041585358</v>
+        <v>0.6882794260010243</v>
       </c>
       <c r="J8">
-        <v>0.05983958495886199</v>
+        <v>0.1581363992604849</v>
       </c>
       <c r="K8">
-        <v>3.496563974406399</v>
+        <v>1.273589462729603</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7731061915493811</v>
+        <v>0.4094224854082498</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.32462568979841</v>
+        <v>3.227267194752031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0857120092136654</v>
+        <v>0.03274317009352501</v>
       </c>
       <c r="D9">
-        <v>0.1530519885274231</v>
+        <v>0.1841589487111293</v>
       </c>
       <c r="E9">
-        <v>0.07933404100443653</v>
+        <v>0.144785533660027</v>
       </c>
       <c r="F9">
-        <v>0.6356758767660722</v>
+        <v>1.321599128498129</v>
       </c>
       <c r="G9">
-        <v>0.0007940003408839682</v>
+        <v>0.002453117170361375</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3562147984744612</v>
+        <v>0.6762925136985984</v>
       </c>
       <c r="J9">
-        <v>0.06011260760126191</v>
+        <v>0.1546281691148614</v>
       </c>
       <c r="K9">
-        <v>4.683231617074</v>
+        <v>1.648276724742686</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.035259943668699</v>
+        <v>0.4875156651878569</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.363694330012891</v>
+        <v>3.145352198015672</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1005583642670445</v>
+        <v>0.03753096969234093</v>
       </c>
       <c r="D10">
-        <v>0.1757250958525987</v>
+        <v>0.189495862380852</v>
       </c>
       <c r="E10">
-        <v>0.08682919971584724</v>
+        <v>0.1451585779840663</v>
       </c>
       <c r="F10">
-        <v>0.6774960618300199</v>
+        <v>1.308832796755098</v>
       </c>
       <c r="G10">
-        <v>0.0007866119335350833</v>
+        <v>0.002448656782063541</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3849828445858705</v>
+        <v>0.6700751972394841</v>
       </c>
       <c r="J10">
-        <v>0.06127443503983088</v>
+        <v>0.1524976190870078</v>
       </c>
       <c r="K10">
-        <v>5.560662056670651</v>
+        <v>1.922345035692445</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.229856664161176</v>
+        <v>0.5450586660216743</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.422066324382683</v>
+        <v>3.096912482171234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1073398531229373</v>
+        <v>0.03969800359185172</v>
       </c>
       <c r="D11">
-        <v>0.1861853392105814</v>
+        <v>0.1919780769068495</v>
       </c>
       <c r="E11">
-        <v>0.09040506730998032</v>
+        <v>0.1453988165323707</v>
       </c>
       <c r="F11">
-        <v>0.6992442543900239</v>
+        <v>1.303997249395053</v>
       </c>
       <c r="G11">
-        <v>0.0007833231476712815</v>
+        <v>0.002446723729229579</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3997893568785713</v>
+        <v>0.6678119494917567</v>
       </c>
       <c r="J11">
-        <v>0.06204151381834677</v>
+        <v>0.1516256109774829</v>
       </c>
       <c r="K11">
-        <v>5.961810615042907</v>
+        <v>2.04674568498001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.31900972073305</v>
+        <v>0.5712697399514184</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.456117738061181</v>
+        <v>3.077438285131109</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1099129511033397</v>
+        <v>0.04051700459581298</v>
       </c>
       <c r="D12">
-        <v>0.1901697755385499</v>
+        <v>0.1929257907690101</v>
       </c>
       <c r="E12">
-        <v>0.09178509024394188</v>
+        <v>0.1454999190275572</v>
       </c>
       <c r="F12">
-        <v>0.7079058761743653</v>
+        <v>1.302306177525054</v>
       </c>
       <c r="G12">
-        <v>0.0007820874864444187</v>
+        <v>0.00244600546456598</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4056662452977591</v>
+        <v>0.6670363956145522</v>
       </c>
       <c r="J12">
-        <v>0.06236899023466691</v>
+        <v>0.1513093958630023</v>
       </c>
       <c r="K12">
-        <v>6.114071393854658</v>
+        <v>2.093811569002469</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.352877479458741</v>
+        <v>0.5811997560011406</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.470185897927763</v>
+        <v>3.070433237536605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1093585433817168</v>
+        <v>0.04034069007988705</v>
       </c>
       <c r="D13">
-        <v>0.1893105770208336</v>
+        <v>0.1927213399726497</v>
       </c>
       <c r="E13">
-        <v>0.09148669121322328</v>
+        <v>0.1454776945127421</v>
       </c>
       <c r="F13">
-        <v>0.7060209162831512</v>
+        <v>1.302664147063659</v>
       </c>
       <c r="G13">
-        <v>0.0007823531864045038</v>
+        <v>0.002446159545531883</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4043881643833771</v>
+        <v>0.667199797018128</v>
       </c>
       <c r="J13">
-        <v>0.06229677154681923</v>
+        <v>0.1513768756821534</v>
       </c>
       <c r="K13">
-        <v>6.081262417630228</v>
+        <v>2.083676993398228</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.345578390258154</v>
+        <v>0.5790609594126721</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.467102269222437</v>
+        <v>3.071925452857272</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1075514347257069</v>
+        <v>0.03976541569876701</v>
       </c>
       <c r="D14">
-        <v>0.1865126586730241</v>
+        <v>0.1920558909317549</v>
       </c>
       <c r="E14">
-        <v>0.09051807111210408</v>
+        <v>0.1454069313679867</v>
       </c>
       <c r="F14">
-        <v>0.6999481061412638</v>
+        <v>1.303855315563112</v>
       </c>
       <c r="G14">
-        <v>0.0007832212980389718</v>
+        <v>0.002446664362177471</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4002673048941148</v>
+        <v>0.6677465096959665</v>
       </c>
       <c r="J14">
-        <v>0.06206769776715504</v>
+        <v>0.1515993151674841</v>
       </c>
       <c r="K14">
-        <v>5.974329692538618</v>
+        <v>2.05061867829437</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.321793787037123</v>
+        <v>0.5720866020211162</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.457251038979024</v>
+        <v>3.076854565869382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1064452261186801</v>
+        <v>0.03941283322468792</v>
       </c>
       <c r="D15">
-        <v>0.1848019693440932</v>
+        <v>0.1916492916943469</v>
       </c>
       <c r="E15">
-        <v>0.08992820102717403</v>
+        <v>0.1453649056262378</v>
       </c>
       <c r="F15">
-        <v>0.6962848845303071</v>
+        <v>1.304603187056948</v>
       </c>
       <c r="G15">
-        <v>0.0007837542883146567</v>
+        <v>0.00244697536429789</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3977790227239595</v>
+        <v>0.6680920062682389</v>
       </c>
       <c r="J15">
-        <v>0.06193228558622366</v>
+        <v>0.1517373889768869</v>
       </c>
       <c r="K15">
-        <v>5.908878561186327</v>
+        <v>2.030363970421661</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.307239545386551</v>
+        <v>0.5678151714784576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.451372679170476</v>
+        <v>3.079921930361991</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1001158293262989</v>
+        <v>0.03738912567420982</v>
       </c>
       <c r="D16">
-        <v>0.1750446320743464</v>
+        <v>0.1893347327357731</v>
       </c>
       <c r="E16">
-        <v>0.08659902262493446</v>
+        <v>0.1451442960513951</v>
       </c>
       <c r="F16">
-        <v>0.6761324557232555</v>
+        <v>1.309168392980659</v>
       </c>
       <c r="G16">
-        <v>0.0007868282619022609</v>
+        <v>0.002448785037913871</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3840517096525318</v>
+        <v>0.6702344961304405</v>
       </c>
       <c r="J16">
-        <v>0.06122933079622683</v>
+        <v>0.1525565642551392</v>
       </c>
       <c r="K16">
-        <v>5.534491899288923</v>
+        <v>1.914209426133539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.224044387034567</v>
+        <v>0.5433463610288811</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.419999849162934</v>
+        <v>3.09823680023112</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09624082443468751</v>
+        <v>0.03614481688494209</v>
       </c>
       <c r="D17">
-        <v>0.1690978682719617</v>
+        <v>0.1879287132375111</v>
       </c>
       <c r="E17">
-        <v>0.08460065027557917</v>
+        <v>0.1450270159124862</v>
       </c>
       <c r="F17">
-        <v>0.6644908849671722</v>
+        <v>1.312218133643292</v>
       </c>
       <c r="G17">
-        <v>0.0007887320941433117</v>
+        <v>0.002449919756089691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3760865184004061</v>
+        <v>0.6716937335626554</v>
       </c>
       <c r="J17">
-        <v>0.06086104510048429</v>
+        <v>0.1530840083815619</v>
       </c>
       <c r="K17">
-        <v>5.30537605156718</v>
+        <v>1.842880319165147</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.173179756317168</v>
+        <v>0.5283440063553542</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.402739587597495</v>
+        <v>3.110129166988486</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09401457073713004</v>
+        <v>0.03542809363501931</v>
       </c>
       <c r="D18">
-        <v>0.1656910500934572</v>
+        <v>0.1871251351687846</v>
       </c>
       <c r="E18">
-        <v>0.08346676174366507</v>
+        <v>0.1449661997617611</v>
       </c>
       <c r="F18">
-        <v>0.6580491477108694</v>
+        <v>1.314063728712078</v>
       </c>
       <c r="G18">
-        <v>0.0007898339696941047</v>
+        <v>0.002450581455624135</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3716655674462075</v>
+        <v>0.6725862185558</v>
       </c>
       <c r="J18">
-        <v>0.06067149787753934</v>
+        <v>0.1533965270805027</v>
       </c>
       <c r="K18">
-        <v>5.173778694352336</v>
+        <v>1.801828022309508</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.143981978491695</v>
+        <v>0.5197183235679148</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.393511520756107</v>
+        <v>3.117210355318235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0932612048794681</v>
+        <v>0.0351852475661758</v>
       </c>
       <c r="D19">
-        <v>0.1645398275499019</v>
+        <v>0.1868539402755829</v>
       </c>
       <c r="E19">
-        <v>0.08308545380193877</v>
+        <v>0.1449467493612175</v>
       </c>
       <c r="F19">
-        <v>0.6559107390866359</v>
+        <v>1.314704316008729</v>
       </c>
       <c r="G19">
-        <v>0.0007902082399496843</v>
+        <v>0.002450807050169481</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3701955982679621</v>
+        <v>0.6728975234456556</v>
       </c>
       <c r="J19">
-        <v>0.06061106840987307</v>
+        <v>0.1535039109123559</v>
       </c>
       <c r="K19">
-        <v>5.12925175365325</v>
+        <v>1.787924085340137</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.134105620516351</v>
+        <v>0.5167983935421034</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.390504420425202</v>
+        <v>3.119649284751858</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09665305408938707</v>
+        <v>0.0362773824839735</v>
       </c>
       <c r="D20">
-        <v>0.1697294870883468</v>
+        <v>0.1880778563047016</v>
       </c>
       <c r="E20">
-        <v>0.08481175984814371</v>
+        <v>0.145038813440852</v>
       </c>
       <c r="F20">
-        <v>0.6657036023423615</v>
+        <v>1.311884015205962</v>
       </c>
       <c r="G20">
-        <v>0.0007885287245956718</v>
+        <v>0.002449798028159133</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3769176653946928</v>
+        <v>0.6715328906087876</v>
       </c>
       <c r="J20">
-        <v>0.06089792487348689</v>
+        <v>0.1530269142532674</v>
       </c>
       <c r="K20">
-        <v>5.329746313949386</v>
+        <v>1.850476100348885</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.178588240862254</v>
+        <v>0.5299406973719982</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.404503900234317</v>
+        <v>3.108838252261819</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1080820788747729</v>
+        <v>0.03993443161414234</v>
       </c>
       <c r="D21">
-        <v>0.1873338211796636</v>
+        <v>0.1922511396103204</v>
       </c>
       <c r="E21">
-        <v>0.09080185810049102</v>
+        <v>0.1454274414223526</v>
       </c>
       <c r="F21">
-        <v>0.7017199875974569</v>
+        <v>1.303501637463611</v>
       </c>
       <c r="G21">
-        <v>0.0007829660539448432</v>
+        <v>0.002446515712705719</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4014701843372137</v>
+        <v>0.6675837134624771</v>
       </c>
       <c r="J21">
-        <v>0.06213395558066637</v>
+        <v>0.1515335993102305</v>
       </c>
       <c r="K21">
-        <v>6.005728243210115</v>
+        <v>2.060329864737639</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.328776844648075</v>
+        <v>0.5741350230530884</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.460111933721123</v>
+        <v>3.075396731509244</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1155818809014022</v>
+        <v>0.04231513919160079</v>
       </c>
       <c r="D22">
-        <v>0.1989767150945028</v>
+        <v>0.1950237787911959</v>
       </c>
       <c r="E22">
-        <v>0.0948688570489189</v>
+        <v>0.1457404675218292</v>
       </c>
       <c r="F22">
-        <v>0.7277600676770248</v>
+        <v>1.298839689192647</v>
       </c>
       <c r="G22">
-        <v>0.0007793869040143526</v>
+        <v>0.002444450590142417</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4191021837521802</v>
+        <v>0.6654777868214765</v>
       </c>
       <c r="J22">
-        <v>0.06315884530502203</v>
+        <v>0.1506392168756605</v>
       </c>
       <c r="K22">
-        <v>6.449623205736714</v>
+        <v>2.197235827559837</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.427568830141212</v>
+        <v>0.6030442832688721</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.50334568669598</v>
+        <v>3.055694466426502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1115759394628952</v>
+        <v>0.04104537991180734</v>
       </c>
       <c r="D23">
-        <v>0.1927492795290107</v>
+        <v>0.1935398612661885</v>
       </c>
       <c r="E23">
-        <v>0.09268359958563721</v>
+        <v>0.1455680024944002</v>
       </c>
       <c r="F23">
-        <v>0.7136210539507886</v>
+        <v>1.301253062737786</v>
       </c>
       <c r="G23">
-        <v>0.0007812922351409093</v>
+        <v>0.002445545480732947</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4095386126251341</v>
+        <v>0.6665582108953743</v>
       </c>
       <c r="J23">
-        <v>0.06259103365339769</v>
+        <v>0.1511090940673263</v>
       </c>
       <c r="K23">
-        <v>6.212492203531781</v>
+        <v>2.124189824906864</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.374777640656276</v>
+        <v>0.5876126801985464</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.479606966406948</v>
+        <v>3.066012509528889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09646668035304629</v>
+        <v>0.03621745379155072</v>
       </c>
       <c r="D24">
-        <v>0.169443894847106</v>
+        <v>0.1880104138884775</v>
       </c>
       <c r="E24">
-        <v>0.08471627063143572</v>
+        <v>0.1450334591887454</v>
       </c>
       <c r="F24">
-        <v>0.6651545530844984</v>
+        <v>1.312034782790278</v>
       </c>
       <c r="G24">
-        <v>0.0007886206451559343</v>
+        <v>0.002449853032203971</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3765414123272848</v>
+        <v>0.6716054409197341</v>
       </c>
       <c r="J24">
-        <v>0.06088118262776376</v>
+        <v>0.153052697590855</v>
       </c>
       <c r="K24">
-        <v>5.318728135839422</v>
+        <v>1.847042185305725</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.176142926164701</v>
+        <v>0.5292188352864713</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.403704096577115</v>
+        <v>3.109421114499639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0802624975293611</v>
+        <v>0.03097049632602022</v>
       </c>
       <c r="D25">
-        <v>0.1448172459554371</v>
+        <v>0.1822423062222214</v>
       </c>
       <c r="E25">
-        <v>0.07670875590343229</v>
+        <v>0.1447107892073518</v>
       </c>
       <c r="F25">
-        <v>0.6224762567208373</v>
+        <v>1.327160315073385</v>
       </c>
       <c r="G25">
-        <v>0.0007967893711025603</v>
+        <v>0.002454845309154418</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3470041337723728</v>
+        <v>0.6790815117337061</v>
       </c>
       <c r="J25">
-        <v>0.05987946039769554</v>
+        <v>0.1554988101070833</v>
       </c>
       <c r="K25">
-        <v>4.361468385478702</v>
+        <v>1.547120955664695</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9640516399922205</v>
+        <v>0.4663586792645731</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.348251460527848</v>
+        <v>3.165454264108519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_215/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02707368271244093</v>
+        <v>0.06837273906943153</v>
       </c>
       <c r="D2">
-        <v>0.1781656595681369</v>
+        <v>0.1270422968507177</v>
       </c>
       <c r="E2">
-        <v>0.1446918898624894</v>
+        <v>0.07124860248794818</v>
       </c>
       <c r="F2">
-        <v>1.341293567397457</v>
+        <v>0.5981539716417643</v>
       </c>
       <c r="G2">
-        <v>0.002458821648212779</v>
+        <v>0.0008030541697751657</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6863248066017675</v>
+        <v>0.3297010384142354</v>
       </c>
       <c r="J2">
-        <v>0.1576000511679396</v>
+        <v>0.05977621129657962</v>
       </c>
       <c r="K2">
-        <v>1.325493459160668</v>
+        <v>3.660134821667441</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4201918276503207</v>
+        <v>0.8091618472758881</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.214595581085661</v>
+        <v>1.326948323333923</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02441208013344465</v>
+        <v>0.06032316660081705</v>
       </c>
       <c r="D3">
-        <v>0.175510064981772</v>
+        <v>0.1151818617038742</v>
       </c>
       <c r="E3">
-        <v>0.1448156765348578</v>
+        <v>0.06778885762189901</v>
       </c>
       <c r="F3">
-        <v>1.352735958002803</v>
+        <v>0.585576861541675</v>
       </c>
       <c r="G3">
-        <v>0.002461705477286613</v>
+        <v>0.0008074665869134967</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6923138821479746</v>
+        <v>0.320401654723927</v>
       </c>
       <c r="J3">
-        <v>0.159211077902885</v>
+        <v>0.06006093585743599</v>
       </c>
       <c r="K3">
-        <v>1.174822085372625</v>
+        <v>3.185965063017875</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3889817653281327</v>
+        <v>0.7047209839515318</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.252798895395557</v>
+        <v>1.323244154564264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02276774562533745</v>
+        <v>0.05537954187588667</v>
       </c>
       <c r="D4">
-        <v>0.1739327526466354</v>
+        <v>0.1079800062690595</v>
       </c>
       <c r="E4">
-        <v>0.1449591373338279</v>
+        <v>0.06577377936400985</v>
       </c>
       <c r="F4">
-        <v>1.360679540209958</v>
+        <v>0.5796215023034037</v>
       </c>
       <c r="G4">
-        <v>0.002463569904438587</v>
+        <v>0.0008102613028168687</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6965226120446388</v>
+        <v>0.3157834590716888</v>
       </c>
       <c r="J4">
-        <v>0.1602924078220553</v>
+        <v>0.06039819236006494</v>
       </c>
       <c r="K4">
-        <v>1.082087063608896</v>
+        <v>2.895071921767283</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3698591012823584</v>
+        <v>0.6407766772504075</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.278666616111337</v>
+        <v>1.325822298905749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02209515529386863</v>
+        <v>0.05336399419964977</v>
       </c>
       <c r="D5">
-        <v>0.1733034440111467</v>
+        <v>0.1050639325623166</v>
       </c>
       <c r="E5">
-        <v>0.1450345781379863</v>
+        <v>0.06497876814574965</v>
       </c>
       <c r="F5">
-        <v>1.364147211643484</v>
+        <v>0.5776166103529121</v>
       </c>
       <c r="G5">
-        <v>0.002464353316905006</v>
+        <v>0.0008114221125577287</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6983711345455248</v>
+        <v>0.3141612406830134</v>
       </c>
       <c r="J5">
-        <v>0.160756218523872</v>
+        <v>0.06057471482782972</v>
       </c>
       <c r="K5">
-        <v>1.044243303852568</v>
+        <v>2.776552682282897</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3620771160938787</v>
+        <v>0.614754420874263</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.289813217329197</v>
+        <v>1.328031162307525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02198332140446979</v>
+        <v>0.05302923549410821</v>
       </c>
       <c r="D6">
-        <v>0.1731997628347273</v>
+        <v>0.1045808104488799</v>
       </c>
       <c r="E6">
-        <v>0.1450481310452414</v>
+        <v>0.06484829935342518</v>
       </c>
       <c r="F6">
-        <v>1.364736936941974</v>
+        <v>0.5773085526700186</v>
       </c>
       <c r="G6">
-        <v>0.002464484831832046</v>
+        <v>0.0008116162018294015</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6986861334039496</v>
+        <v>0.3139071420769319</v>
       </c>
       <c r="J6">
-        <v>0.1608346323737067</v>
+        <v>0.06060633733499898</v>
       </c>
       <c r="K6">
-        <v>1.037956216724069</v>
+        <v>2.756872856192388</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3607855813774066</v>
+        <v>0.6104353023240421</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.291700633796538</v>
+        <v>1.328466146219071</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02275868496510469</v>
+        <v>0.05535236434484858</v>
       </c>
       <c r="D7">
-        <v>0.1739242109786474</v>
+        <v>0.1079406051181167</v>
       </c>
       <c r="E7">
-        <v>0.1449600859831968</v>
+        <v>0.06576295337410087</v>
       </c>
       <c r="F7">
-        <v>1.360725373052851</v>
+        <v>0.5795927838412922</v>
       </c>
       <c r="G7">
-        <v>0.00246358037403419</v>
+        <v>0.0008102768685604575</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.696547001872446</v>
+        <v>0.3157605485915269</v>
       </c>
       <c r="J7">
-        <v>0.1602985691781598</v>
+        <v>0.06040041699711551</v>
       </c>
       <c r="K7">
-        <v>1.081576902808393</v>
+        <v>2.893473491971974</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3697541069154298</v>
+        <v>0.6404256012373679</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.278814493463955</v>
+        <v>1.325847478267008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02615807490639099</v>
+        <v>0.06559705477772582</v>
       </c>
       <c r="D8">
-        <v>0.177239004471474</v>
+        <v>0.1229351760139679</v>
       </c>
       <c r="E8">
-        <v>0.1447205811407137</v>
+        <v>0.07003220051933923</v>
       </c>
       <c r="F8">
-        <v>1.345048259912275</v>
+        <v>0.593436807559506</v>
       </c>
       <c r="G8">
-        <v>0.002459796578097596</v>
+        <v>0.0008045581073950962</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6882794260010243</v>
+        <v>0.3262589041585287</v>
       </c>
       <c r="J8">
-        <v>0.1581363992604849</v>
+        <v>0.05983958495895081</v>
       </c>
       <c r="K8">
-        <v>1.273589462729603</v>
+        <v>3.496563974406286</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4094224854082498</v>
+        <v>0.773106191549374</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.227267194752031</v>
+        <v>1.32462568979831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03274317009352501</v>
+        <v>0.08571200921367961</v>
       </c>
       <c r="D9">
-        <v>0.1841589487111293</v>
+        <v>0.1530519885277215</v>
       </c>
       <c r="E9">
-        <v>0.144785533660027</v>
+        <v>0.07933404100444008</v>
       </c>
       <c r="F9">
-        <v>1.321599128498129</v>
+        <v>0.6356758767660509</v>
       </c>
       <c r="G9">
-        <v>0.002453117170361375</v>
+        <v>0.0007940003408048957</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6762925136985984</v>
+        <v>0.3562147984744541</v>
       </c>
       <c r="J9">
-        <v>0.1546281691148614</v>
+        <v>0.0601126076011731</v>
       </c>
       <c r="K9">
-        <v>1.648276724742686</v>
+        <v>4.683231617074114</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4875156651878569</v>
+        <v>1.035259943668713</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.145352198015672</v>
+        <v>1.363694330012891</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03753096969234093</v>
+        <v>0.1005583642671724</v>
       </c>
       <c r="D10">
-        <v>0.189495862380852</v>
+        <v>0.1757250958526839</v>
       </c>
       <c r="E10">
-        <v>0.1451585779840663</v>
+        <v>0.08682919971583658</v>
       </c>
       <c r="F10">
-        <v>1.308832796755098</v>
+        <v>0.6774960618300128</v>
       </c>
       <c r="G10">
-        <v>0.002448656782063541</v>
+        <v>0.0007866119335131771</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6700751972394841</v>
+        <v>0.3849828445858634</v>
       </c>
       <c r="J10">
-        <v>0.1524976190870078</v>
+        <v>0.0612744350397243</v>
       </c>
       <c r="K10">
-        <v>1.922345035692445</v>
+        <v>5.560662056670878</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5450586660216743</v>
+        <v>1.229856664161176</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.096912482171234</v>
+        <v>1.422066324382769</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03969800359185172</v>
+        <v>0.1073398531229515</v>
       </c>
       <c r="D11">
-        <v>0.1919780769068495</v>
+        <v>0.1861853392104109</v>
       </c>
       <c r="E11">
-        <v>0.1453988165323707</v>
+        <v>0.09040506730998032</v>
       </c>
       <c r="F11">
-        <v>1.303997249395053</v>
+        <v>0.6992442543900168</v>
       </c>
       <c r="G11">
-        <v>0.002446723729229579</v>
+        <v>0.0007833231477007137</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6678119494917567</v>
+        <v>0.3997893568785855</v>
       </c>
       <c r="J11">
-        <v>0.1516256109774829</v>
+        <v>0.06204151381828993</v>
       </c>
       <c r="K11">
-        <v>2.04674568498001</v>
+        <v>5.961810615043078</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5712697399514184</v>
+        <v>1.319009720733092</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.077438285131109</v>
+        <v>1.456117738061181</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04051700459581298</v>
+        <v>0.1099129511033254</v>
       </c>
       <c r="D12">
-        <v>0.1929257907690101</v>
+        <v>0.1901697755383083</v>
       </c>
       <c r="E12">
-        <v>0.1454999190275572</v>
+        <v>0.09178509024392767</v>
       </c>
       <c r="F12">
-        <v>1.302306177525054</v>
+        <v>0.7079058761743653</v>
       </c>
       <c r="G12">
-        <v>0.00244600546456598</v>
+        <v>0.000782087486491629</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6670363956145522</v>
+        <v>0.405666245297752</v>
       </c>
       <c r="J12">
-        <v>0.1513093958630023</v>
+        <v>0.06236899023475928</v>
       </c>
       <c r="K12">
-        <v>2.093811569002469</v>
+        <v>6.114071393854545</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5811997560011406</v>
+        <v>1.352877479458755</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.070433237536605</v>
+        <v>1.470185897927735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04034069007988705</v>
+        <v>0.1093585433816315</v>
       </c>
       <c r="D13">
-        <v>0.1927213399726497</v>
+        <v>0.1893105770208052</v>
       </c>
       <c r="E13">
-        <v>0.1454776945127421</v>
+        <v>0.09148669121324104</v>
       </c>
       <c r="F13">
-        <v>1.302664147063659</v>
+        <v>0.7060209162831512</v>
       </c>
       <c r="G13">
-        <v>0.002446159545531883</v>
+        <v>0.0007823531864288904</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.667199797018128</v>
+        <v>0.4043881643833913</v>
       </c>
       <c r="J13">
-        <v>0.1513768756821534</v>
+        <v>0.06229677154683344</v>
       </c>
       <c r="K13">
-        <v>2.083676993398228</v>
+        <v>6.081262417630285</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5790609594126721</v>
+        <v>1.345578390258169</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.071925452857272</v>
+        <v>1.467102269222352</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03976541569876701</v>
+        <v>0.1075514347254938</v>
       </c>
       <c r="D14">
-        <v>0.1920558909317549</v>
+        <v>0.1865126586732657</v>
       </c>
       <c r="E14">
-        <v>0.1454069313679867</v>
+        <v>0.09051807111211119</v>
       </c>
       <c r="F14">
-        <v>1.303855315563112</v>
+        <v>0.6999481061412638</v>
       </c>
       <c r="G14">
-        <v>0.002446664362177471</v>
+        <v>0.0007832212980375903</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6677465096959665</v>
+        <v>0.4002673048941006</v>
       </c>
       <c r="J14">
-        <v>0.1515993151674841</v>
+        <v>0.06206769776708754</v>
       </c>
       <c r="K14">
-        <v>2.05061867829437</v>
+        <v>5.974329692538788</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5720866020211162</v>
+        <v>1.321793787037151</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.076854565869382</v>
+        <v>1.457251038979138</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03941283322468792</v>
+        <v>0.1064452261181117</v>
       </c>
       <c r="D15">
-        <v>0.1916492916943469</v>
+        <v>0.1848019693442211</v>
       </c>
       <c r="E15">
-        <v>0.1453649056262378</v>
+        <v>0.08992820102715626</v>
       </c>
       <c r="F15">
-        <v>1.304603187056948</v>
+        <v>0.6962848845303071</v>
       </c>
       <c r="G15">
-        <v>0.00244697536429789</v>
+        <v>0.000783754288313824</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6680920062682389</v>
+        <v>0.3977790227239453</v>
       </c>
       <c r="J15">
-        <v>0.1517373889768869</v>
+        <v>0.06193228558624497</v>
       </c>
       <c r="K15">
-        <v>2.030363970421661</v>
+        <v>5.90887856118627</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5678151714784576</v>
+        <v>1.307239545386537</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.079921930361991</v>
+        <v>1.451372679170504</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03738912567420982</v>
+        <v>0.1001158293267395</v>
       </c>
       <c r="D16">
-        <v>0.1893347327357731</v>
+        <v>0.1750446320743606</v>
       </c>
       <c r="E16">
-        <v>0.1451442960513951</v>
+        <v>0.08659902262493091</v>
       </c>
       <c r="F16">
-        <v>1.309168392980659</v>
+        <v>0.6761324557232484</v>
       </c>
       <c r="G16">
-        <v>0.002448785037913871</v>
+        <v>0.0007868282619602505</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6702344961304405</v>
+        <v>0.3840517096525318</v>
       </c>
       <c r="J16">
-        <v>0.1525565642551392</v>
+        <v>0.06122933079620552</v>
       </c>
       <c r="K16">
-        <v>1.914209426133539</v>
+        <v>5.534491899289037</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5433463610288811</v>
+        <v>1.224044387034567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.09823680023112</v>
+        <v>1.419999849162991</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03614481688494209</v>
+        <v>0.09624082443460225</v>
       </c>
       <c r="D17">
-        <v>0.1879287132375111</v>
+        <v>0.1690978682720043</v>
       </c>
       <c r="E17">
-        <v>0.1450270159124862</v>
+        <v>0.08460065027556141</v>
       </c>
       <c r="F17">
-        <v>1.312218133643292</v>
+        <v>0.6644908849671722</v>
       </c>
       <c r="G17">
-        <v>0.002449919756089691</v>
+        <v>0.0007887320942234278</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6716937335626554</v>
+        <v>0.3760865184004203</v>
       </c>
       <c r="J17">
-        <v>0.1530840083815619</v>
+        <v>0.06086104510039547</v>
       </c>
       <c r="K17">
-        <v>1.842880319165147</v>
+        <v>5.305376051567066</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5283440063553542</v>
+        <v>1.173179756317182</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.110129166988486</v>
+        <v>1.402739587597438</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03542809363501931</v>
+        <v>0.09401457073690267</v>
       </c>
       <c r="D18">
-        <v>0.1871251351687846</v>
+        <v>0.1656910500934288</v>
       </c>
       <c r="E18">
-        <v>0.1449661997617611</v>
+        <v>0.08346676174368284</v>
       </c>
       <c r="F18">
-        <v>1.314063728712078</v>
+        <v>0.6580491477108765</v>
       </c>
       <c r="G18">
-        <v>0.002450581455624135</v>
+        <v>0.0007898339696365553</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6725862185558</v>
+        <v>0.3716655674462217</v>
       </c>
       <c r="J18">
-        <v>0.1533965270805027</v>
+        <v>0.06067149787754289</v>
       </c>
       <c r="K18">
-        <v>1.801828022309508</v>
+        <v>5.173778694352336</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5197183235679148</v>
+        <v>1.143981978491695</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.117210355318235</v>
+        <v>1.393511520756164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0351852475661758</v>
+        <v>0.09326120487928335</v>
       </c>
       <c r="D19">
-        <v>0.1868539402755829</v>
+        <v>0.1645398275497314</v>
       </c>
       <c r="E19">
-        <v>0.1449467493612175</v>
+        <v>0.08308545380193522</v>
       </c>
       <c r="F19">
-        <v>1.314704316008729</v>
+        <v>0.6559107390866359</v>
       </c>
       <c r="G19">
-        <v>0.002450807050169481</v>
+        <v>0.0007902082400666463</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6728975234456556</v>
+        <v>0.3701955982679692</v>
       </c>
       <c r="J19">
-        <v>0.1535039109123559</v>
+        <v>0.06061106840988728</v>
       </c>
       <c r="K19">
-        <v>1.787924085340137</v>
+        <v>5.129251753653193</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5167983935421034</v>
+        <v>1.134105620516323</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.119649284751858</v>
+        <v>1.390504420425259</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0362773824839735</v>
+        <v>0.09665305408938707</v>
       </c>
       <c r="D20">
-        <v>0.1880778563047016</v>
+        <v>0.1697294870884747</v>
       </c>
       <c r="E20">
-        <v>0.145038813440852</v>
+        <v>0.08481175984816147</v>
       </c>
       <c r="F20">
-        <v>1.311884015205962</v>
+        <v>0.6657036023423615</v>
       </c>
       <c r="G20">
-        <v>0.002449798028159133</v>
+        <v>0.0007885287246184964</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6715328906087876</v>
+        <v>0.3769176653946928</v>
       </c>
       <c r="J20">
-        <v>0.1530269142532674</v>
+        <v>0.06089792487358636</v>
       </c>
       <c r="K20">
-        <v>1.850476100348885</v>
+        <v>5.329746313949329</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5299406973719982</v>
+        <v>1.178588240862297</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.108838252261819</v>
+        <v>1.404503900234346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03993443161414234</v>
+        <v>0.1080820788745598</v>
       </c>
       <c r="D21">
-        <v>0.1922511396103204</v>
+        <v>0.1873338211796209</v>
       </c>
       <c r="E21">
-        <v>0.1454274414223526</v>
+        <v>0.09080185810048036</v>
       </c>
       <c r="F21">
-        <v>1.303501637463611</v>
+        <v>0.7017199875974427</v>
       </c>
       <c r="G21">
-        <v>0.002446515712705719</v>
+        <v>0.0007829660539749203</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6675837134624771</v>
+        <v>0.4014701843372137</v>
       </c>
       <c r="J21">
-        <v>0.1515335993102305</v>
+        <v>0.062133955580709</v>
       </c>
       <c r="K21">
-        <v>2.060329864737639</v>
+        <v>6.005728243209944</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5741350230530884</v>
+        <v>1.328776844648061</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.075396731509244</v>
+        <v>1.460111933721066</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04231513919160079</v>
+        <v>0.1155818809015017</v>
       </c>
       <c r="D22">
-        <v>0.1950237787911959</v>
+        <v>0.1989767150947159</v>
       </c>
       <c r="E22">
-        <v>0.1457404675218292</v>
+        <v>0.09486885704892956</v>
       </c>
       <c r="F22">
-        <v>1.298839689192647</v>
+        <v>0.727760067677039</v>
       </c>
       <c r="G22">
-        <v>0.002444450590142417</v>
+        <v>0.0007793869040129928</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6654777868214765</v>
+        <v>0.4191021837521802</v>
       </c>
       <c r="J22">
-        <v>0.1506392168756605</v>
+        <v>0.06315884530506466</v>
       </c>
       <c r="K22">
-        <v>2.197235827559837</v>
+        <v>6.449623205736771</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6030442832688721</v>
+        <v>1.427568830141212</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.055694466426502</v>
+        <v>1.503345686695951</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04104537991180734</v>
+        <v>0.1115759394631084</v>
       </c>
       <c r="D23">
-        <v>0.1935398612661885</v>
+        <v>0.1927492795288686</v>
       </c>
       <c r="E23">
-        <v>0.1455680024944002</v>
+        <v>0.09268359958562655</v>
       </c>
       <c r="F23">
-        <v>1.301253062737786</v>
+        <v>0.7136210539507886</v>
       </c>
       <c r="G23">
-        <v>0.002445545480732947</v>
+        <v>0.0007812922352266605</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6665582108953743</v>
+        <v>0.4095386126251341</v>
       </c>
       <c r="J23">
-        <v>0.1511090940673263</v>
+        <v>0.06259103365337282</v>
       </c>
       <c r="K23">
-        <v>2.124189824906864</v>
+        <v>6.212492203531781</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5876126801985464</v>
+        <v>1.374777640656248</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.066012509528889</v>
+        <v>1.479606966407005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03621745379155072</v>
+        <v>0.09646668035303207</v>
       </c>
       <c r="D24">
-        <v>0.1880104138884775</v>
+        <v>0.1694438948469923</v>
       </c>
       <c r="E24">
-        <v>0.1450334591887454</v>
+        <v>0.08471627063144993</v>
       </c>
       <c r="F24">
-        <v>1.312034782790278</v>
+        <v>0.6651545530845056</v>
       </c>
       <c r="G24">
-        <v>0.002449853032203971</v>
+        <v>0.0007886206451566064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6716054409197341</v>
+        <v>0.3765414123272848</v>
       </c>
       <c r="J24">
-        <v>0.153052697590855</v>
+        <v>0.06088118262771047</v>
       </c>
       <c r="K24">
-        <v>1.847042185305725</v>
+        <v>5.318728135839308</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5292188352864713</v>
+        <v>1.176142926164687</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.109421114499639</v>
+        <v>1.403704096577172</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03097049632602022</v>
+        <v>0.08026249752960268</v>
       </c>
       <c r="D25">
-        <v>0.1822423062222214</v>
+        <v>0.1448172459553518</v>
       </c>
       <c r="E25">
-        <v>0.1447107892073518</v>
+        <v>0.07670875590343229</v>
       </c>
       <c r="F25">
-        <v>1.327160315073385</v>
+        <v>0.6224762567208302</v>
       </c>
       <c r="G25">
-        <v>0.002454845309154418</v>
+        <v>0.0007967893710452172</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6790815117337061</v>
+        <v>0.3470041337723586</v>
       </c>
       <c r="J25">
-        <v>0.1554988101070833</v>
+        <v>0.05987946039767422</v>
       </c>
       <c r="K25">
-        <v>1.547120955664695</v>
+        <v>4.361468385478815</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4663586792645731</v>
+        <v>0.9640516399922205</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.165454264108519</v>
+        <v>1.34825146052782</v>
       </c>
     </row>
   </sheetData>
